--- a/public/sheets/sample-product.xlsx
+++ b/public/sheets/sample-product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Show / Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combi Type</t>
   </si>
   <si>
     <t xml:space="preserve">FG</t>
@@ -391,8 +394,8 @@
   </sheetPr>
   <dimension ref="A1:AM999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,7 +503,9 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3"/>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -513,34 +518,34 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>68868186</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>298</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>12</v>
@@ -552,10 +557,10 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>260</v>
@@ -576,7 +581,7 @@
         <v>0.29</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5" t="n">
         <v>3.58</v>
@@ -585,16 +590,16 @@
         <v>3.93</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="5" t="n">
         <v>316</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
